--- a/lecture/WiSe_Spezielle_Statistik/bikes_count.xlsx
+++ b/lecture/WiSe_Spezielle_Statistik/bikes_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDD89E2-03B4-4846-8F7C-EE6869EEF8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F1D09F-E280-EA4F-935A-8B61B28C856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,11 +445,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D58" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D59" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E58" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E59" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -2183,18 +2183,64 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45650</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F58">
+        <v>487</v>
+      </c>
+      <c r="G58">
+        <v>973960</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>45657</v>
       </c>
-      <c r="C58" s="3">
+      <c r="B59" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C59" s="3">
         <v>45657</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <f t="shared" si="2"/>
         <v>53</v>
+      </c>
+      <c r="F59">
+        <v>509</v>
+      </c>
+      <c r="G59">
+        <v>978970</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
